--- a/lec3_problemsheet.xlsx
+++ b/lec3_problemsheet.xlsx
@@ -47,6 +47,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -66,18 +67,18 @@
     <font>
       <sz val="15"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13.95"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -154,8 +155,12 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,19 +256,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>696600</xdr:colOff>
+      <xdr:colOff>696240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Tekstikehys 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="384120" y="225720"/>
-          <a:ext cx="6814800" cy="1223640"/>
+          <a:ext cx="6814440" cy="1223280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -275,27 +280,48 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="fi-FI" sz="1500" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Values given in question 1</a:t>
+            <a:t>Question 1 text with initial values</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="fi-FI" sz="1500" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="fi-FI" sz="1500" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="fi-FI" sz="1500" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -307,11 +333,21 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="fi-FI" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="fi-FI" sz="1500" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
@@ -340,19 +376,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>794880</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:colOff>794520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="1" name="Tekstikehys 2"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="384120" y="252720"/>
-          <a:ext cx="7725960" cy="590040"/>
+          <a:ext cx="7725600" cy="966600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -364,29 +400,45 @@
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="0" rIns="0" tIns="0" bIns="0" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="fi-FI" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="fi-FI" sz="1500" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
-            <a:t>Question 1 text:</a:t>
+            <a:t>Question 2 text with initial values</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
+          <a:endParaRPr b="0" lang="fi-FI" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
-            <a:rPr b="1" lang="fi-FI" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="fi-FI" sz="1500" spc="-1" strike="noStrike">
               <a:latin typeface="Times New Roman"/>
             </a:rPr>
             <a:t>In an opinion survey with sample size of 1000 the support for building more windpower to Finland was 82.0%.  Calculate the error margin of the result at 95% significanve level.</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="1500" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -453,77 +505,77 @@
   <dimension ref="B2:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <v>3.5</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>17.4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>20.2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <v>6.5</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>29.6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>31.4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>9.5</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>43.7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>46.3</v>
       </c>
     </row>
